--- a/ETProjectTaskSchedule.xlsx
+++ b/ETProjectTaskSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam.whindleton\OneDrive - Edgenuity Inc\Documents\dev\extraction_tool\repo\et_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\et_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E840AA-0241-46A2-9DD9-88F8D0B4A569}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5CBA8-B8AD-4DAE-84CB-40271795C88A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9A63CB4F-AA7B-4FBF-833B-B94B3FCBC214}"/>
+    <workbookView xWindow="3690" yWindow="1275" windowWidth="22290" windowHeight="13695" xr2:uid="{9A63CB4F-AA7B-4FBF-833B-B94B3FCBC214}"/>
   </bookViews>
   <sheets>
     <sheet name="December" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Tasks</t>
   </si>
@@ -145,6 +145,35 @@
   </si>
   <si>
     <t>ALL DOCS &amp; SETUP REQUIRED!!!</t>
+  </si>
+  <si>
+    <t>Batch Script/Executable:
+Test auto-start batch script and executable</t>
+  </si>
+  <si>
+    <t>Bat file to open virtualtenv complete</t>
+  </si>
+  <si>
+    <t>Executbale - start BAT, start ET</t>
+  </si>
+  <si>
+    <t>Licensing for ET app</t>
+  </si>
+  <si>
+    <t>Batch Script/Executable &amp; License:
+Due 12/27/2019</t>
+  </si>
+  <si>
+    <t>Research module dependancies</t>
+  </si>
+  <si>
+    <t>Review license options</t>
+  </si>
+  <si>
+    <t>Assign license and update GitHub</t>
+  </si>
+  <si>
+    <t>Update version for release</t>
   </si>
 </sst>
 </file>
@@ -197,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,49 +393,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -413,6 +414,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -424,6 +447,38 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,7 +797,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,19 +807,19 @@
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="4.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
     <col min="14" max="14" width="4.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="16" max="16" width="4.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
     <col min="20" max="20" width="4.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="19.28515625" style="1" customWidth="1"/>
   </cols>
@@ -775,22 +830,22 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -808,34 +863,34 @@
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="2"/>
       <c r="V3" t="s">
         <v>4</v>
@@ -848,10 +903,10 @@
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -891,29 +946,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
       <c r="U5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -924,20 +979,20 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="12"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
       <c r="U6"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -948,20 +1003,20 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
       <c r="U7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -971,25 +1026,27 @@
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
       <c r="U8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -997,23 +1054,27 @@
         <v>6</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
       <c r="U9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1024,20 +1085,20 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
       <c r="U10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1068,8 +1129,8 @@
       <c r="P11" s="4">
         <v>12</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13">
         <v>13</v>
       </c>
       <c r="S11" s="3"/>
@@ -1085,22 +1146,22 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="24" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
       <c r="U12"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1110,25 +1171,27 @@
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="41" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
       <c r="U13"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1136,23 +1199,27 @@
         <v>11</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23"/>
       <c r="U14"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1160,23 +1227,27 @@
         <v>12</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="23"/>
       <c r="U15"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1184,23 +1255,27 @@
         <v>13</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="8"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="12"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1211,20 +1286,20 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25"/>
       <c r="U17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1234,7 +1309,7 @@
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1247,8 +1322,8 @@
       <c r="H18" s="4">
         <v>15</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23">
+      <c r="I18" s="12"/>
+      <c r="J18" s="13">
         <v>16</v>
       </c>
       <c r="K18" s="3"/>
@@ -1263,12 +1338,12 @@
       <c r="P18" s="4">
         <v>19</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4">
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40">
         <v>20</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="4">
+      <c r="S18" s="39"/>
+      <c r="T18" s="40">
         <v>21</v>
       </c>
     </row>
@@ -1280,22 +1355,26 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="24" t="s">
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="43"/>
       <c r="U19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -1306,20 +1385,20 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="12"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="43"/>
       <c r="U20"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -1330,20 +1409,20 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="12"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="43"/>
       <c r="U21"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1354,20 +1433,20 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="12"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="43"/>
       <c r="U22"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -1384,20 +1463,20 @@
         <v>27</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="12"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="43"/>
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -1408,22 +1487,24 @@
       <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E24" s="8"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="14"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="46"/>
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -1434,30 +1515,32 @@
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E25" s="8"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4">
+      <c r="G25" s="39"/>
+      <c r="H25" s="40">
         <v>22</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4">
+      <c r="I25" s="39"/>
+      <c r="J25" s="40">
         <v>23</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17">
+      <c r="K25" s="10"/>
+      <c r="L25" s="11">
         <v>24</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17">
+      <c r="M25" s="10"/>
+      <c r="N25" s="11">
         <v>25</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4">
+      <c r="O25" s="39"/>
+      <c r="P25" s="40">
         <v>26</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4">
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20">
         <v>27</v>
       </c>
       <c r="S25" s="3"/>
@@ -1465,28 +1548,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E26" s="8"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="12"/>
+      <c r="G26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="43"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="32"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="23"/>
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -1497,20 +1592,20 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="12"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="23"/>
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -1521,71 +1616,71 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="12"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="23"/>
       <c r="U28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="12"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="23"/>
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="12"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="23"/>
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="25"/>
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -1593,18 +1688,18 @@
       <c r="H32" s="4">
         <v>29</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34">
+      <c r="I32" s="19"/>
+      <c r="J32" s="20">
         <v>30</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="17">
+      <c r="K32" s="10"/>
+      <c r="L32" s="11">
         <v>31</v>
       </c>
-      <c r="M32" s="32" t="s">
+      <c r="M32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="11">
         <v>1</v>
       </c>
       <c r="O32" s="3"/>
@@ -1615,138 +1710,111 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="35" t="s">
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="12"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
       <c r="U33"/>
     </row>
     <row r="34" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="12"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="23"/>
       <c r="U34"/>
     </row>
     <row r="35" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="12"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="23"/>
       <c r="U35"/>
     </row>
     <row r="36" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="12"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="23"/>
       <c r="U36"/>
     </row>
     <row r="37" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="12"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="23"/>
       <c r="U37"/>
     </row>
     <row r="38" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="14"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="25"/>
       <c r="U38"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q5:R10"/>
-    <mergeCell ref="S5:T10"/>
-    <mergeCell ref="G5:H10"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J10"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K5:L10"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M5:N10"/>
-    <mergeCell ref="O5:P10"/>
-    <mergeCell ref="Q19:R24"/>
-    <mergeCell ref="S19:T24"/>
-    <mergeCell ref="G12:H17"/>
-    <mergeCell ref="I12:J17"/>
-    <mergeCell ref="K12:L17"/>
-    <mergeCell ref="M12:N17"/>
-    <mergeCell ref="O12:P17"/>
-    <mergeCell ref="Q12:R17"/>
-    <mergeCell ref="G19:H24"/>
-    <mergeCell ref="I19:J24"/>
-    <mergeCell ref="K19:L24"/>
-    <mergeCell ref="M19:N24"/>
-    <mergeCell ref="O19:P24"/>
     <mergeCell ref="G2:T2"/>
     <mergeCell ref="S26:T31"/>
     <mergeCell ref="G33:H38"/>
@@ -1763,6 +1831,33 @@
     <mergeCell ref="O26:P31"/>
     <mergeCell ref="Q26:R31"/>
     <mergeCell ref="S12:T17"/>
+    <mergeCell ref="Q19:R24"/>
+    <mergeCell ref="S19:T24"/>
+    <mergeCell ref="G12:H17"/>
+    <mergeCell ref="I12:J17"/>
+    <mergeCell ref="K12:L17"/>
+    <mergeCell ref="M12:N17"/>
+    <mergeCell ref="O12:P17"/>
+    <mergeCell ref="Q12:R17"/>
+    <mergeCell ref="G19:H24"/>
+    <mergeCell ref="I19:J24"/>
+    <mergeCell ref="K19:L24"/>
+    <mergeCell ref="M19:N24"/>
+    <mergeCell ref="O19:P24"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q5:R10"/>
+    <mergeCell ref="S5:T10"/>
+    <mergeCell ref="G5:H10"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J10"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K5:L10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M5:N10"/>
+    <mergeCell ref="O5:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1801,22 +1896,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1834,34 +1929,34 @@
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="15"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="2"/>
       <c r="V3" t="s">
         <v>4</v>
@@ -1904,120 +1999,120 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
       <c r="U5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="12"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
       <c r="U6"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="23"/>
       <c r="U7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
       <c r="U8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="23"/>
       <c r="U9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
       <c r="U10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2043,120 +2138,120 @@
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23"/>
       <c r="U12"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
       <c r="U13"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23"/>
       <c r="U14"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="23"/>
       <c r="U15"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="12"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25"/>
       <c r="U17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2179,105 +2274,105 @@
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="23"/>
       <c r="U19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="12"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="23"/>
       <c r="U20"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="12"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="23"/>
       <c r="U21"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="12"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="23"/>
       <c r="U22"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="12"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="23"/>
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="14"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="25"/>
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2297,105 +2392,105 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="12"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="23"/>
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="12"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="23"/>
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="12"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="23"/>
       <c r="U28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="12"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="23"/>
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="12"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="23"/>
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="25"/>
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2415,136 +2510,109 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="12"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="23"/>
       <c r="U33"/>
     </row>
     <row r="34" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="12"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="23"/>
       <c r="U34"/>
     </row>
     <row r="35" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="12"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="23"/>
       <c r="U35"/>
     </row>
     <row r="36" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="12"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="23"/>
       <c r="U36"/>
     </row>
     <row r="37" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="12"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="23"/>
       <c r="U37"/>
     </row>
     <row r="38" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="14"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="25"/>
       <c r="U38"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="G5:H10"/>
-    <mergeCell ref="I5:J10"/>
-    <mergeCell ref="K5:L10"/>
-    <mergeCell ref="M5:N10"/>
-    <mergeCell ref="O5:P10"/>
-    <mergeCell ref="Q5:R10"/>
-    <mergeCell ref="S5:T10"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q19:R24"/>
-    <mergeCell ref="S19:T24"/>
-    <mergeCell ref="G12:H17"/>
-    <mergeCell ref="I12:J17"/>
-    <mergeCell ref="K12:L17"/>
-    <mergeCell ref="M12:N17"/>
-    <mergeCell ref="O12:P17"/>
-    <mergeCell ref="Q12:R17"/>
-    <mergeCell ref="G19:H24"/>
-    <mergeCell ref="I19:J24"/>
-    <mergeCell ref="K19:L24"/>
-    <mergeCell ref="M19:N24"/>
-    <mergeCell ref="O19:P24"/>
     <mergeCell ref="G2:T2"/>
     <mergeCell ref="S26:T31"/>
     <mergeCell ref="G33:H38"/>
@@ -2561,6 +2629,33 @@
     <mergeCell ref="O26:P31"/>
     <mergeCell ref="Q26:R31"/>
     <mergeCell ref="S12:T17"/>
+    <mergeCell ref="Q19:R24"/>
+    <mergeCell ref="S19:T24"/>
+    <mergeCell ref="G12:H17"/>
+    <mergeCell ref="I12:J17"/>
+    <mergeCell ref="K12:L17"/>
+    <mergeCell ref="M12:N17"/>
+    <mergeCell ref="O12:P17"/>
+    <mergeCell ref="Q12:R17"/>
+    <mergeCell ref="G19:H24"/>
+    <mergeCell ref="I19:J24"/>
+    <mergeCell ref="K19:L24"/>
+    <mergeCell ref="M19:N24"/>
+    <mergeCell ref="O19:P24"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="G5:H10"/>
+    <mergeCell ref="I5:J10"/>
+    <mergeCell ref="K5:L10"/>
+    <mergeCell ref="M5:N10"/>
+    <mergeCell ref="O5:P10"/>
+    <mergeCell ref="Q5:R10"/>
+    <mergeCell ref="S5:T10"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
